--- a/CashFlow/OMC_cashflow.xlsx
+++ b/CashFlow/OMC_cashflow.xlsx
@@ -74,9 +74,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -1114,13 +1114,13 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-297500000.0</v>
+        <v>37472000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-428600000.0</v>
+        <v>37393000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>8657300000.0</v>
+        <v>37648000000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
